--- a/flask_project/data/awae_order2.xlsx
+++ b/flask_project/data/awae_order2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HDD documents\University\comp3900\capstone-project-3900-h10a-awae\flask_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079B439-C03A-4533-992C-41855974A409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A3085-C1CA-427F-8AB7-87D8CC65303F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2D39D095-C432-4DE9-9E3C-ADCADE5D24FC}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="18000" windowHeight="10776" xr2:uid="{2D39D095-C432-4DE9-9E3C-ADCADE5D24FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,13 +452,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -470,12 +470,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -688,15 +685,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE986122-7019-4C67-87AB-3546E5D6E0FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875FC85A-630F-4EA3-A0D8-5F2DB21FF7B6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="89aec279-af5f-459e-b8bc-30b625a62425"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2feb762b-24b5-433c-ba18-3a6f7cbfab69"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -721,18 +730,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875FC85A-630F-4EA3-A0D8-5F2DB21FF7B6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE986122-7019-4C67-87AB-3546E5D6E0FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="89aec279-af5f-459e-b8bc-30b625a62425"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2feb762b-24b5-433c-ba18-3a6f7cbfab69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>